--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019년2학기/융합소프트웨어종합설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA1FF4-7933-AC46-8AF1-BE1E04CDB919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE872B03-B447-A24D-B7E6-DDA7AC7D5F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="1320" windowWidth="20600" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
@@ -74,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -133,6 +136,90 @@
   <si>
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
+  <si>
+    <t>정영모</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +230,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +263,24 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -215,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +357,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,7 +675,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -604,6 +714,9 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
@@ -674,13 +787,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+    <row r="8" spans="1:11" ht="14">
+      <c r="A8" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE872B03-B447-A24D-B7E6-DDA7AC7D5F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32603298-3125-1641-A76D-DA3AF07206DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1320" windowWidth="20600" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -218,6 +218,14 @@
       </rPr>
       <t>토론</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화브리타임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use case diagram, outline 토론 및 작성</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +683,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -710,7 +718,9 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -808,12 +818,24 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="15">
+        <v>43733</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>120</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="13">
       <c r="A10" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32603298-3125-1641-A76D-DA3AF07206DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35899844-1B9B-1C46-B7BE-6CE5831A37C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1320" windowWidth="20600" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>Use case diagram, outline 토론 및 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype backend 코드 작성</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -838,12 +842,24 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="15">
+        <v>43736</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>300</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="13">
       <c r="A11" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35899844-1B9B-1C46-B7BE-6CE5831A37C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8B06F-FBF3-4042-9099-EBB386FEE478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1320" windowWidth="20600" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -687,7 +687,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -862,12 +862,24 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="15">
+        <v>43737</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>150</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="13">
       <c r="A12" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8B06F-FBF3-4042-9099-EBB386FEE478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5D8FBE-8E3B-404C-BB72-557F5AEE0062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1320" windowWidth="20600" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>Prototype backend 코드 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 30일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype frontend  코드 작성 및 테스트</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +695,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -882,12 +890,24 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="13">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>330</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="13">
       <c r="A13" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E246468-2673-E444-B7D0-DB4E25662FA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93FCC5E-CAE7-A64B-91CD-F212C9A9EA84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t>Use case specification 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI concept 수정 및 페이지 추가</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +752,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1023,20 +1027,44 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="13">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="15">
+        <v>43751</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>120</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="15">
+        <v>43751</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>90</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="14">
       <c r="A18" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93FCC5E-CAE7-A64B-91CD-F212C9A9EA84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCD98F-C48D-6F46-AE28-EEDDF0E61A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>GUI concept 수정 및 페이지 추가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 24일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use case specification 수정, Initial data set 작성</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +760,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1067,12 +1075,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>330</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCD98F-C48D-6F46-AE28-EEDDF0E61A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001E5D3-C12C-604B-80A3-676B1728F11B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>Use case specification 수정, Initial data set 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS 회의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 29일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 작성</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +772,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1095,20 +1107,44 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="15">
+        <v>43766</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>120</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>150</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14">
       <c r="A21" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001E5D3-C12C-604B-80A3-676B1728F11B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FBD813-646A-C448-8010-21131B1BDE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>SAD 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드수정 및 SAD 수정</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +776,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1147,12 +1151,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="15">
+        <v>43771</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>120</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="13">
       <c r="A22" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FBD813-646A-C448-8010-21131B1BDE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582F8264-3000-514A-A877-96608779C2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14180" yWindow="460" windowWidth="14620" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -315,17 +315,415 @@
     <t>코드수정 및 SAD 수정</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타팀평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타팀평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Class Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sequence Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Class Design Relationship </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ER Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Software Architecture Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -385,6 +783,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -394,7 +811,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -417,11 +834,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,8 +898,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -776,7 +1221,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1151,80 +1596,164 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="15">
+      <c r="A21" s="23">
+        <v>43769</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D21" s="25">
+        <v>60</v>
+      </c>
+      <c r="E21" s="26">
+        <v>150</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14">
+      <c r="A22" s="23">
+        <v>43769</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0.5625</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>75</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A23" s="15">
         <v>43771</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B23" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C23" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E23" s="17">
         <v>120</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+    <row r="24" spans="1:6" ht="14">
+      <c r="A24" s="23">
+        <v>43774</v>
+      </c>
+      <c r="B24" s="24">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>75</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="23">
+        <v>43776</v>
+      </c>
+      <c r="B25" s="24">
+        <v>0.5625</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>75</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="13">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="A26" s="23">
+        <v>43780</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <v>300</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14">
+      <c r="A27" s="23">
+        <v>43781</v>
+      </c>
+      <c r="B27" s="24">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D27" s="25">
+        <v>40</v>
+      </c>
+      <c r="E27" s="26">
+        <v>35</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14">
+      <c r="A28" s="23">
+        <v>43781</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.6875</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.9375</v>
+      </c>
+      <c r="D28" s="25">
+        <v>30</v>
+      </c>
+      <c r="E28" s="26">
+        <v>330</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="13">
       <c r="A29" s="15"/>
@@ -1274,13 +1803,13 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="14">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="11"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" ht="13">
       <c r="A36" s="15"/>

--- a/PSP/20131811 정영모 PSP.xlsx
+++ b/PSP/20131811 정영모 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582F8264-3000-514A-A877-96608779C2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618F3FA2-9B8E-F346-9A77-3CB600E39DAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="460" windowWidth="14620" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -710,6 +710,753 @@
       </rPr>
       <t>작성</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Team Project idea sketch</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그려서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 1번, 2번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java Script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 구현</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">번 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Class Diagram 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER Diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최종본 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend controller들 구현 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backend enity table 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend my lab 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발을 위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀과 맞추기</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>Use Case Specification 코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀과 맞추고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test Data Set Pass/Fail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 결과보고서 작성</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 27일 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend alarm 구현 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend controller들 구현 </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +1470,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -802,6 +1549,33 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -856,57 +1630,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1218,21 +1996,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="3" customWidth="1"/>
+    <col min="7" max="11" width="7.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -1248,840 +2027,1261 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="14">
-      <c r="A6" s="8">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="10">
+        <v>43713</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>90</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14">
+      <c r="A7" s="15">
         <v>43716</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="16">
         <v>0.1875</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="17">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="19">
         <v>60</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
-      <c r="A7" s="8">
+    <row r="8" spans="1:11" ht="13">
+      <c r="A8" s="15">
         <v>43716</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B8" s="17">
         <v>0.75</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="17">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="19">
         <v>120</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
-      <c r="A8" s="21">
+    <row r="9" spans="1:11" ht="14">
+      <c r="A9" s="22">
         <v>43726</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B9" s="23">
         <v>0.75</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C9" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="19">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15">
+    <row r="10" spans="1:11" ht="14">
+      <c r="A10" s="10">
+        <v>43727</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45</v>
+      </c>
+      <c r="E10" s="25">
+        <v>30</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14">
+      <c r="A11" s="10">
+        <v>43732</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>75</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13">
+      <c r="A12" s="26">
         <v>43733</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B12" s="23">
         <v>0.75</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C12" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E12" s="19">
         <v>120</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F12" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="15">
+    <row r="13" spans="1:11" ht="13">
+      <c r="A13" s="26">
         <v>43736</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B13" s="23">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C13" s="23">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E13" s="19">
         <v>300</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F13" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="15">
+    <row r="14" spans="1:11" ht="13">
+      <c r="A14" s="26">
         <v>43737</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B14" s="23">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C14" s="23">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E14" s="19">
         <v>150</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F14" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13">
-      <c r="A12" s="15" t="s">
+    <row r="15" spans="1:11" ht="13">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B15" s="23">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C15" s="23">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E15" s="19">
         <v>330</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13">
-      <c r="A13" s="15">
+    <row r="16" spans="1:11" ht="13">
+      <c r="A16" s="26">
         <v>43740</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B16" s="23">
         <v>0.875</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C16" s="23">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E16" s="19">
         <v>120</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F16" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A17" s="26">
         <v>43744</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B17" s="23">
         <v>0.75</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C17" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E17" s="19">
         <v>120</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13">
-      <c r="A15" s="15">
+    <row r="18" spans="1:6" ht="13">
+      <c r="A18" s="26">
         <v>43745</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B18" s="23">
         <v>0.875</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C18" s="23">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E18" s="19">
         <v>180</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F18" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13">
-      <c r="A16" s="15">
+    <row r="19" spans="1:6" ht="14">
+      <c r="A19" s="10">
+        <v>43746</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>75</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14">
+      <c r="A20" s="10">
+        <v>43748</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D20" s="12">
+        <v>30</v>
+      </c>
+      <c r="E20" s="25">
+        <v>45</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13">
+      <c r="A21" s="26">
         <v>43751</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B21" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C21" s="23">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E21" s="19">
         <v>120</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F21" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="15">
+    <row r="22" spans="1:6" ht="13">
+      <c r="A22" s="26">
         <v>43751</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B22" s="23">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C22" s="23">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D22" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E22" s="19">
         <v>90</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F22" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="15" t="s">
+    <row r="23" spans="1:6" ht="12" customHeight="1">
+      <c r="A23" s="10">
+        <v>43753</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+      <c r="E23" s="25">
+        <v>60</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14">
+      <c r="A24" s="10">
+        <v>43755</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>75</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1">
+      <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B25" s="23">
         <v>0.75</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C25" s="23">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D25" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E25" s="19">
         <v>330</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F25" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15">
+    <row r="26" spans="1:6" ht="13">
+      <c r="A26" s="26">
         <v>43766</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B26" s="23">
         <v>0.75</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C26" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D26" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E26" s="19">
         <v>120</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F26" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="15" t="s">
+    <row r="27" spans="1:6" ht="13">
+      <c r="A27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B27" s="23">
         <v>0.875</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C27" s="23">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D27" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E27" s="19">
         <v>150</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F27" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="23">
+    <row r="28" spans="1:6" ht="14">
+      <c r="A28" s="10">
         <v>43769</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B28" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C28" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D28" s="12">
         <v>60</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E28" s="25">
         <v>150</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F28" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
-      <c r="A22" s="23">
+    <row r="29" spans="1:6" ht="14">
+      <c r="A29" s="10">
         <v>43769</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B29" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C29" s="11">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D29" s="12">
         <v>0</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E29" s="25">
         <v>75</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A30" s="26">
         <v>43771</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B30" s="23">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C30" s="23">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D30" s="18">
         <v>0</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E30" s="19">
         <v>120</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F30" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
-      <c r="A24" s="23">
+    <row r="31" spans="1:6" ht="14">
+      <c r="A31" s="10">
         <v>43774</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B31" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C31" s="11">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D31" s="12">
         <v>0</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E31" s="25">
         <v>75</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F31" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="23">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A32" s="10">
         <v>43776</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B32" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C32" s="11">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D32" s="12">
         <v>0</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E32" s="25">
         <v>75</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F32" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="23">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A33" s="10">
         <v>43780</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B33" s="11">
         <v>0.75</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C33" s="11">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D33" s="12">
         <v>0</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E33" s="25">
         <v>300</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F33" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14">
-      <c r="A27" s="23">
+    <row r="34" spans="1:6" ht="14">
+      <c r="A34" s="10">
         <v>43781</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B34" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C34" s="11">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D34" s="12">
         <v>40</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E34" s="25">
         <v>35</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F34" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
-      <c r="A28" s="23">
+    <row r="35" spans="1:6" ht="14">
+      <c r="A35" s="10">
         <v>43781</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B35" s="11">
         <v>0.6875</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C35" s="11">
         <v>0.9375</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D35" s="12">
         <v>30</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E35" s="25">
         <v>330</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F35" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="13">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="13">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="13">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="14">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" ht="13">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="13">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="13">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+    <row r="36" spans="1:6" ht="14">
+      <c r="A36" s="10">
+        <v>43785</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>270</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14">
+      <c r="A37" s="10">
+        <v>43789</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="25">
+        <v>120</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14">
+      <c r="A38" s="10">
+        <v>43790</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="25">
+        <v>75</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13">
+      <c r="A39" s="26">
+        <v>43791</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C39" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>30</v>
+      </c>
+      <c r="E39" s="5">
+        <v>150</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="10">
+        <v>43792</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="25">
+        <v>75</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10">
+        <v>43793</v>
+      </c>
+      <c r="B41" s="30">
+        <v>0.875</v>
+      </c>
+      <c r="C41" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="25">
+        <v>240</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10">
+        <v>43795</v>
+      </c>
+      <c r="B42" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="25">
+        <v>75</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13">
+      <c r="A43" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="29">
+        <v>0.4375</v>
+      </c>
+      <c r="C43" s="29">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D43" s="5">
+        <v>90</v>
+      </c>
+      <c r="E43" s="5">
+        <v>210</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="10">
+        <v>43797</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
+        <v>75</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A45" s="10">
+        <v>43799</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="25">
+        <v>210</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13">
+      <c r="A46" s="10">
+        <v>43800</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C46" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>240</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="A47" s="10">
+        <v>43801</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C47" s="29">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>210</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14">
+      <c r="A48" s="10">
+        <v>43802</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
+        <v>75</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A49" s="10">
+        <v>43803</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>120</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A50" s="10">
+        <v>43804</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="25">
+        <v>255</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A51" s="10">
+        <v>43806</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="25">
+        <v>270</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A52" s="10">
+        <v>43807</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="25">
+        <v>600</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A53" s="10">
+        <v>43808</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="4:5" ht="15" customHeight="1">
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
